--- a/Books/vergi.xlsx
+++ b/Books/vergi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\source\repos\DalistoTask2\Books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5925B2A-063C-48F8-A278-44C61FA9546E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B270D2-3211-43FA-8124-7F0EDD80FCE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5472" yWindow="4824" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4036" uniqueCount="1202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="1202">
   <si>
     <t>BASMANE</t>
   </si>
@@ -3948,10 +3948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2107"/>
+  <dimension ref="A1:B1054"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A1040" workbookViewId="0">
+      <selection sqref="A1:B1054"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12125,8163 +12125,6 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="1055" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1055" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1056" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1056" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1057" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1057" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1058" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1058" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1059" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1059" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="1060" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1060" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="1061" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1061" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="1062" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1062" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1062" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="1063" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1063" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1063" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1064" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1064" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1064" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="1065" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1065" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1065" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="1066" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1066" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1066" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="1067" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1067" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1067" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="1068" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1068" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1068" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="1069" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1069" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1069" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1070" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1070" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1070" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="1071" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1071" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1071" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="1072" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1072" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1072" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1073" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1073" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1073" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="1074" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1074" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1074" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="1075" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1075" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1075" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="1076" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1076" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="1077" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1077" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1077" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="1078" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1078" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="1079" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1079" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1079" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="1080" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1080" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1080" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="1081" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1081" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1081" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="1082" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1082" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1082" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="1083" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1083" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1083" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="1084" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1084" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1084" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="1085" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1085" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1085" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="1086" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1086" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1086" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="1087" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1087" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1087" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="1088" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1088" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1088" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="1089" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1089" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1090" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1090" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1090" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="1091" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1091" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1091" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="1092" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1092" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1092" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="1093" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1093" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1093" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="1094" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1094" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1094" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="1095" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1095" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1095" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="1096" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1096" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1096" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="1097" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1097" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1097" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="1098" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1098" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1098" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="1099" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1099" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1099" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="1100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1100" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="1101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1101" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1101" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="1102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1102" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1102" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="1103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1103" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1103" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="1104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1104" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="1105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1105" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1105" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="1106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1106" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1106" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="1107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1107" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1107" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="1108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1108" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1108" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="1109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1109" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1109" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="1110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1110" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1110" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="1111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1111" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1111" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="1112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1112" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1112" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="1113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1113" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1113" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="1114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1114" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1114" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="1115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1115" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1115" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="1116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1116" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1116" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="1117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1117" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1117" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="1118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1118" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1118" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="1119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1119" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1119" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="1120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1120" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1120" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="1121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1121" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1121" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="1122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1122" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1122" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="1123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1123" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1123" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="1124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1124" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1124" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="1125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1125" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1125" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="1126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1126" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1126" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="1127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1127" t="s">
-        <v>109</v>
-      </c>
-      <c r="B1127" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="1128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1128" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1128" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="1129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1129" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1129" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="1130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1130" t="s">
-        <v>113</v>
-      </c>
-      <c r="B1130" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="1131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1131" t="s">
-        <v>114</v>
-      </c>
-      <c r="B1131" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="1132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1132" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1132" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="1133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1133" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1133" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="1134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1134" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1134" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="1135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1135" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1135" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="1136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1136" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="1137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1137" t="s">
-        <v>121</v>
-      </c>
-      <c r="B1137" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="1138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1138" t="s">
-        <v>123</v>
-      </c>
-      <c r="B1138" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="1139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1139" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1139" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="1140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1140" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1140" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="1141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1141" t="s">
-        <v>127</v>
-      </c>
-      <c r="B1141" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="1142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1142" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="1143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1143" t="s">
-        <v>129</v>
-      </c>
-      <c r="B1143" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="1144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1144" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="1145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1145" t="s">
-        <v>132</v>
-      </c>
-      <c r="B1145" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="1146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1146" t="s">
-        <v>133</v>
-      </c>
-      <c r="B1146" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="1147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1147" t="s">
-        <v>134</v>
-      </c>
-      <c r="B1147" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="1148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1148" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1148" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="1149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1149" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1149" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="1150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1150" t="s">
-        <v>139</v>
-      </c>
-      <c r="B1150" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="1151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1151" t="s">
-        <v>141</v>
-      </c>
-      <c r="B1151" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="1152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1152" t="s">
-        <v>142</v>
-      </c>
-      <c r="B1152" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="1153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1153" t="s">
-        <v>143</v>
-      </c>
-      <c r="B1153" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="1154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1154" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="1155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1155" t="s">
-        <v>146</v>
-      </c>
-      <c r="B1155" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="1156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1156" t="s">
-        <v>147</v>
-      </c>
-      <c r="B1156" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="1157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1157" t="s">
-        <v>149</v>
-      </c>
-      <c r="B1157" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="1158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1158" t="s">
-        <v>150</v>
-      </c>
-      <c r="B1158" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="1159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1159" t="s">
-        <v>151</v>
-      </c>
-      <c r="B1159" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="1160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1160" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="1161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1161" t="s">
-        <v>153</v>
-      </c>
-      <c r="B1161" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="1162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1162" t="s">
-        <v>155</v>
-      </c>
-      <c r="B1162" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="1163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1163" t="s">
-        <v>157</v>
-      </c>
-      <c r="B1163" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="1164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1164" t="s">
-        <v>159</v>
-      </c>
-      <c r="B1164" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="1165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1165" t="s">
-        <v>160</v>
-      </c>
-      <c r="B1165" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="1166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1166" t="s">
-        <v>161</v>
-      </c>
-      <c r="B1166" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="1167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1167" t="s">
-        <v>162</v>
-      </c>
-      <c r="B1167" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1168" t="s">
-        <v>163</v>
-      </c>
-      <c r="B1168" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="1169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1169" t="s">
-        <v>164</v>
-      </c>
-      <c r="B1169" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="1170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1170" t="s">
-        <v>165</v>
-      </c>
-      <c r="B1170" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="1171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1171" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1171" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="1172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1172" t="s">
-        <v>167</v>
-      </c>
-      <c r="B1172" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="1173" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1173" t="s">
-        <v>168</v>
-      </c>
-      <c r="B1173" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="1174" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1174" t="s">
-        <v>169</v>
-      </c>
-      <c r="B1174" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="1175" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1175" t="s">
-        <v>170</v>
-      </c>
-      <c r="B1175" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="1176" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1176" t="s">
-        <v>171</v>
-      </c>
-      <c r="B1176" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="1177" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1177" t="s">
-        <v>172</v>
-      </c>
-      <c r="B1177" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="1178" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1178" t="s">
-        <v>173</v>
-      </c>
-      <c r="B1178" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="1179" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1179" t="s">
-        <v>175</v>
-      </c>
-      <c r="B1179" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="1180" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1180" t="s">
-        <v>177</v>
-      </c>
-      <c r="B1180" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="1181" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1181" t="s">
-        <v>178</v>
-      </c>
-      <c r="B1181" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="1182" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1182" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="1183" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1183" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="1184" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1184" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="1185" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1185" t="s">
-        <v>182</v>
-      </c>
-      <c r="B1185" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="1186" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1186" t="s">
-        <v>183</v>
-      </c>
-      <c r="B1186" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="1187" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1187" t="s">
-        <v>184</v>
-      </c>
-      <c r="B1187" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="1188" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1188" t="s">
-        <v>186</v>
-      </c>
-      <c r="B1188" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="1189" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1189" t="s">
-        <v>187</v>
-      </c>
-      <c r="B1189" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="1190" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1190" t="s">
-        <v>188</v>
-      </c>
-      <c r="B1190" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="1191" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1191" t="s">
-        <v>189</v>
-      </c>
-      <c r="B1191" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="1192" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1192" t="s">
-        <v>190</v>
-      </c>
-      <c r="B1192" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="1193" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1193" t="s">
-        <v>191</v>
-      </c>
-      <c r="B1193" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="1194" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1194" t="s">
-        <v>193</v>
-      </c>
-      <c r="B1194" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="1195" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1195" t="s">
-        <v>194</v>
-      </c>
-      <c r="B1195" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="1196" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1196" t="s">
-        <v>195</v>
-      </c>
-      <c r="B1196" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="1197" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1197" t="s">
-        <v>197</v>
-      </c>
-      <c r="B1197" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="1198" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1198" t="s">
-        <v>199</v>
-      </c>
-      <c r="B1198" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="1199" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1199" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1199" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="1200" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1200" t="s">
-        <v>201</v>
-      </c>
-      <c r="B1200" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="1201" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1201" t="s">
-        <v>202</v>
-      </c>
-      <c r="B1201" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="1202" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1202" t="s">
-        <v>138</v>
-      </c>
-      <c r="B1202" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="1203" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1203" t="s">
-        <v>204</v>
-      </c>
-      <c r="B1203" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="1204" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1204" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="1205" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1205" t="s">
-        <v>207</v>
-      </c>
-      <c r="B1205" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="1206" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1206" t="s">
-        <v>208</v>
-      </c>
-      <c r="B1206" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="1207" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1207" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="1208" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1208" t="s">
-        <v>210</v>
-      </c>
-      <c r="B1208" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="1209" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1209" t="s">
-        <v>211</v>
-      </c>
-      <c r="B1209" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="1210" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1210" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="1211" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1211" t="s">
-        <v>214</v>
-      </c>
-      <c r="B1211" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="1212" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1212" t="s">
-        <v>215</v>
-      </c>
-      <c r="B1212" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="1213" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1213" t="s">
-        <v>216</v>
-      </c>
-      <c r="B1213" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="1214" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1214" t="s">
-        <v>217</v>
-      </c>
-      <c r="B1214" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="1215" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1215" t="s">
-        <v>218</v>
-      </c>
-      <c r="B1215" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="1216" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1216" t="s">
-        <v>219</v>
-      </c>
-      <c r="B1216" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="1217" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1217" t="s">
-        <v>220</v>
-      </c>
-      <c r="B1217" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="1218" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1218" t="s">
-        <v>221</v>
-      </c>
-      <c r="B1218" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="1219" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1219" t="s">
-        <v>222</v>
-      </c>
-      <c r="B1219" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="1220" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1220" t="s">
-        <v>224</v>
-      </c>
-      <c r="B1220" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="1221" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1221" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="1222" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1222" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="1223" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1223" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1223" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="1224" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1224" t="s">
-        <v>228</v>
-      </c>
-      <c r="B1224" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="1225" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1225" t="s">
-        <v>229</v>
-      </c>
-      <c r="B1225" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="1226" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1226" t="s">
-        <v>230</v>
-      </c>
-      <c r="B1226" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="1227" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1227" t="s">
-        <v>231</v>
-      </c>
-      <c r="B1227" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="1228" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1228" t="s">
-        <v>233</v>
-      </c>
-      <c r="B1228" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="1229" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1229" t="s">
-        <v>235</v>
-      </c>
-      <c r="B1229" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="1230" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1230" t="s">
-        <v>236</v>
-      </c>
-      <c r="B1230" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="1231" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1231" t="s">
-        <v>238</v>
-      </c>
-      <c r="B1231" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="1232" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1232" t="s">
-        <v>239</v>
-      </c>
-      <c r="B1232" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="1233" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1233" t="s">
-        <v>241</v>
-      </c>
-      <c r="B1233" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="1234" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1234" t="s">
-        <v>243</v>
-      </c>
-      <c r="B1234" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="1235" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1235" t="s">
-        <v>244</v>
-      </c>
-      <c r="B1235" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="1236" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1236" t="s">
-        <v>245</v>
-      </c>
-      <c r="B1236" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="1237" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1237" t="s">
-        <v>246</v>
-      </c>
-      <c r="B1237" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="1238" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1238" t="s">
-        <v>247</v>
-      </c>
-      <c r="B1238" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="1239" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1239" t="s">
-        <v>248</v>
-      </c>
-      <c r="B1239" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="1240" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1240" t="s">
-        <v>249</v>
-      </c>
-      <c r="B1240" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="1241" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1241" t="s">
-        <v>250</v>
-      </c>
-      <c r="B1241" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="1242" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1242" t="s">
-        <v>251</v>
-      </c>
-      <c r="B1242" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="1243" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1243" t="s">
-        <v>252</v>
-      </c>
-      <c r="B1243" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="1244" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1244" t="s">
-        <v>253</v>
-      </c>
-      <c r="B1244" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="1245" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1245" t="s">
-        <v>255</v>
-      </c>
-      <c r="B1245" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="1246" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1246" t="s">
-        <v>256</v>
-      </c>
-      <c r="B1246" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="1247" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1247" t="s">
-        <v>257</v>
-      </c>
-      <c r="B1247" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="1248" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1248" t="s">
-        <v>259</v>
-      </c>
-      <c r="B1248" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="1249" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1249" t="s">
-        <v>260</v>
-      </c>
-      <c r="B1249" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="1250" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1250" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1250" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="1251" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1251" t="s">
-        <v>262</v>
-      </c>
-      <c r="B1251" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="1252" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1252" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="1253" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1253" t="s">
-        <v>264</v>
-      </c>
-      <c r="B1253" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="1254" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1254" t="s">
-        <v>265</v>
-      </c>
-      <c r="B1254" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="1255" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1255" t="s">
-        <v>266</v>
-      </c>
-      <c r="B1255" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="1256" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1256" t="s">
-        <v>267</v>
-      </c>
-      <c r="B1256" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="1257" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1257" t="s">
-        <v>268</v>
-      </c>
-      <c r="B1257" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="1258" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1258" t="s">
-        <v>269</v>
-      </c>
-      <c r="B1258" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="1259" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1259" t="s">
-        <v>271</v>
-      </c>
-      <c r="B1259" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="1260" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1260" t="s">
-        <v>273</v>
-      </c>
-      <c r="B1260" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="1261" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1261" t="s">
-        <v>275</v>
-      </c>
-      <c r="B1261" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="1262" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1262" t="s">
-        <v>276</v>
-      </c>
-      <c r="B1262" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="1263" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1263" t="s">
-        <v>277</v>
-      </c>
-      <c r="B1263" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="1264" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1264" t="s">
-        <v>278</v>
-      </c>
-      <c r="B1264" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="1265" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1265" t="s">
-        <v>279</v>
-      </c>
-      <c r="B1265" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="1266" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1266" t="s">
-        <v>280</v>
-      </c>
-      <c r="B1266" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="1267" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1267" t="s">
-        <v>282</v>
-      </c>
-      <c r="B1267" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="1268" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1268" t="s">
-        <v>283</v>
-      </c>
-      <c r="B1268" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="1269" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1269" t="s">
-        <v>284</v>
-      </c>
-      <c r="B1269" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="1270" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1270" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="1271" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1271" t="s">
-        <v>286</v>
-      </c>
-      <c r="B1271" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="1272" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1272" t="s">
-        <v>288</v>
-      </c>
-      <c r="B1272" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="1273" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1273" t="s">
-        <v>289</v>
-      </c>
-      <c r="B1273" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="1274" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1274" t="s">
-        <v>290</v>
-      </c>
-      <c r="B1274" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="1275" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1275" t="s">
-        <v>291</v>
-      </c>
-      <c r="B1275" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="1276" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1276" t="s">
-        <v>293</v>
-      </c>
-      <c r="B1276" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="1277" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1277" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="1278" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1278" t="s">
-        <v>294</v>
-      </c>
-      <c r="B1278" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="1279" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1279" t="s">
-        <v>295</v>
-      </c>
-      <c r="B1279" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="1280" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1280" t="s">
-        <v>296</v>
-      </c>
-      <c r="B1280" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="1281" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1281" t="s">
-        <v>297</v>
-      </c>
-      <c r="B1281" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="1282" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1282" t="s">
-        <v>299</v>
-      </c>
-      <c r="B1282" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="1283" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1283" t="s">
-        <v>301</v>
-      </c>
-      <c r="B1283" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="1284" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1284" t="s">
-        <v>302</v>
-      </c>
-      <c r="B1284" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="1285" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1285" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1285" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="1286" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1286" t="s">
-        <v>304</v>
-      </c>
-      <c r="B1286" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="1287" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1287" t="s">
-        <v>306</v>
-      </c>
-      <c r="B1287" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="1288" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1288" t="s">
-        <v>308</v>
-      </c>
-      <c r="B1288" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="1289" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1289" t="s">
-        <v>310</v>
-      </c>
-      <c r="B1289" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="1290" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1290" t="s">
-        <v>311</v>
-      </c>
-      <c r="B1290" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="1291" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1291" t="s">
-        <v>312</v>
-      </c>
-      <c r="B1291" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="1292" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1292" t="s">
-        <v>314</v>
-      </c>
-      <c r="B1292" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="1293" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1293" t="s">
-        <v>315</v>
-      </c>
-      <c r="B1293" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="1294" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1294" t="s">
-        <v>316</v>
-      </c>
-      <c r="B1294" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="1295" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1295" t="s">
-        <v>318</v>
-      </c>
-      <c r="B1295" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="1296" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1296" t="s">
-        <v>319</v>
-      </c>
-      <c r="B1296" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="1297" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1297" t="s">
-        <v>320</v>
-      </c>
-      <c r="B1297" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="1298" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1298" t="s">
-        <v>321</v>
-      </c>
-      <c r="B1298" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="1299" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1299" t="s">
-        <v>323</v>
-      </c>
-      <c r="B1299" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="1300" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1300" t="s">
-        <v>325</v>
-      </c>
-      <c r="B1300" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="1301" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1301" t="s">
-        <v>326</v>
-      </c>
-      <c r="B1301" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="1302" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1302" t="s">
-        <v>327</v>
-      </c>
-      <c r="B1302" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="1303" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1303" t="s">
-        <v>328</v>
-      </c>
-      <c r="B1303" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="1304" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1304" t="s">
-        <v>329</v>
-      </c>
-      <c r="B1304" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="1305" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1305" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="1306" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1306" t="s">
-        <v>331</v>
-      </c>
-      <c r="B1306" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="1307" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1307" t="s">
-        <v>332</v>
-      </c>
-      <c r="B1307" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="1308" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1308" t="s">
-        <v>333</v>
-      </c>
-      <c r="B1308" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="1309" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1309" t="s">
-        <v>334</v>
-      </c>
-      <c r="B1309" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="1310" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1310" t="s">
-        <v>336</v>
-      </c>
-      <c r="B1310" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="1311" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1311" t="s">
-        <v>338</v>
-      </c>
-      <c r="B1311" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="1312" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1312" t="s">
-        <v>339</v>
-      </c>
-      <c r="B1312" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="1313" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1313" t="s">
-        <v>340</v>
-      </c>
-      <c r="B1313" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="1314" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1314" t="s">
-        <v>341</v>
-      </c>
-      <c r="B1314" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="1315" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1315" t="s">
-        <v>343</v>
-      </c>
-      <c r="B1315" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="1316" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1316" t="s">
-        <v>344</v>
-      </c>
-      <c r="B1316" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="1317" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1317" t="s">
-        <v>346</v>
-      </c>
-      <c r="B1317" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="1318" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1318" t="s">
-        <v>347</v>
-      </c>
-      <c r="B1318" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="1319" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1319" t="s">
-        <v>348</v>
-      </c>
-      <c r="B1319" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="1320" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1320" t="s">
-        <v>349</v>
-      </c>
-      <c r="B1320" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="1321" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1321" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="1322" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1322" t="s">
-        <v>351</v>
-      </c>
-      <c r="B1322" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="1323" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1323" t="s">
-        <v>352</v>
-      </c>
-      <c r="B1323" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="1324" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1324" t="s">
-        <v>354</v>
-      </c>
-      <c r="B1324" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="1325" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1325" t="s">
-        <v>355</v>
-      </c>
-      <c r="B1325" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="1326" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1326" t="s">
-        <v>356</v>
-      </c>
-      <c r="B1326" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="1327" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1327" t="s">
-        <v>358</v>
-      </c>
-      <c r="B1327" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="1328" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1328" t="s">
-        <v>359</v>
-      </c>
-      <c r="B1328" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="1329" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1329" t="s">
-        <v>360</v>
-      </c>
-      <c r="B1329" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="1330" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1330" t="s">
-        <v>361</v>
-      </c>
-      <c r="B1330" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="1331" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1331" t="s">
-        <v>363</v>
-      </c>
-      <c r="B1331" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="1332" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1332" t="s">
-        <v>365</v>
-      </c>
-      <c r="B1332" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="1333" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1333" t="s">
-        <v>367</v>
-      </c>
-      <c r="B1333" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="1334" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1334" t="s">
-        <v>368</v>
-      </c>
-      <c r="B1334" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="1335" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1335" t="s">
-        <v>369</v>
-      </c>
-      <c r="B1335" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="1336" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1336" t="s">
-        <v>370</v>
-      </c>
-      <c r="B1336" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="1337" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1337" t="s">
-        <v>371</v>
-      </c>
-      <c r="B1337" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="1338" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1338" t="s">
-        <v>372</v>
-      </c>
-      <c r="B1338" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="1339" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1339" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="1340" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1340" t="s">
-        <v>374</v>
-      </c>
-      <c r="B1340" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="1341" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1341" t="s">
-        <v>375</v>
-      </c>
-      <c r="B1341" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="1342" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1342" t="s">
-        <v>376</v>
-      </c>
-      <c r="B1342" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="1343" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1343" t="s">
-        <v>377</v>
-      </c>
-      <c r="B1343" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="1344" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1344" t="s">
-        <v>378</v>
-      </c>
-      <c r="B1344" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="1345" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1345" t="s">
-        <v>379</v>
-      </c>
-      <c r="B1345" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="1346" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1346" t="s">
-        <v>380</v>
-      </c>
-      <c r="B1346" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="1347" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1347" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="1348" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1348" t="s">
-        <v>382</v>
-      </c>
-      <c r="B1348" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="1349" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1349" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="1350" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1350" t="s">
-        <v>384</v>
-      </c>
-      <c r="B1350" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="1351" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1351" t="s">
-        <v>385</v>
-      </c>
-      <c r="B1351" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="1352" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1352" t="s">
-        <v>387</v>
-      </c>
-      <c r="B1352" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="1353" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1353" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="1354" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1354" t="s">
-        <v>389</v>
-      </c>
-      <c r="B1354" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="1355" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1355" t="s">
-        <v>390</v>
-      </c>
-      <c r="B1355" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="1356" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1356" t="s">
-        <v>391</v>
-      </c>
-      <c r="B1356" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="1357" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1357" t="s">
-        <v>392</v>
-      </c>
-      <c r="B1357" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="1358" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1358" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="1359" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1359" t="s">
-        <v>394</v>
-      </c>
-      <c r="B1359" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="1360" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1360" t="s">
-        <v>395</v>
-      </c>
-      <c r="B1360" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="1361" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1361" t="s">
-        <v>397</v>
-      </c>
-      <c r="B1361" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="1362" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1362" t="s">
-        <v>140</v>
-      </c>
-      <c r="B1362" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="1363" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1363" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1363" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="1364" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1364" t="s">
-        <v>399</v>
-      </c>
-      <c r="B1364" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="1365" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1365" t="s">
-        <v>400</v>
-      </c>
-      <c r="B1365" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="1366" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1366" t="s">
-        <v>401</v>
-      </c>
-      <c r="B1366" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="1367" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1367" t="s">
-        <v>402</v>
-      </c>
-      <c r="B1367" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="1368" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1368" t="s">
-        <v>404</v>
-      </c>
-      <c r="B1368" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="1369" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1369" t="s">
-        <v>405</v>
-      </c>
-      <c r="B1369" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="1370" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1370" t="s">
-        <v>198</v>
-      </c>
-      <c r="B1370" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="1371" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1371" t="s">
-        <v>407</v>
-      </c>
-      <c r="B1371" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="1372" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1372" t="s">
-        <v>408</v>
-      </c>
-      <c r="B1372" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="1373" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1373" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="1374" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1374" t="s">
-        <v>410</v>
-      </c>
-      <c r="B1374" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="1375" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1375" t="s">
-        <v>411</v>
-      </c>
-      <c r="B1375" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="1376" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1376" t="s">
-        <v>412</v>
-      </c>
-      <c r="B1376" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="1377" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1377" t="s">
-        <v>413</v>
-      </c>
-      <c r="B1377" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="1378" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1378" t="s">
-        <v>414</v>
-      </c>
-      <c r="B1378" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="1379" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1379" t="s">
-        <v>148</v>
-      </c>
-      <c r="B1379" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="1380" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1380" t="s">
-        <v>417</v>
-      </c>
-      <c r="B1380" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="1381" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1381" t="s">
-        <v>419</v>
-      </c>
-      <c r="B1381" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="1382" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1382" t="s">
-        <v>420</v>
-      </c>
-      <c r="B1382" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="1383" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1383" t="s">
-        <v>421</v>
-      </c>
-      <c r="B1383" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="1384" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1384" t="s">
-        <v>422</v>
-      </c>
-      <c r="B1384" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="1385" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1385" t="s">
-        <v>423</v>
-      </c>
-      <c r="B1385" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="1386" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1386" t="s">
-        <v>424</v>
-      </c>
-      <c r="B1386" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="1387" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1387" t="s">
-        <v>425</v>
-      </c>
-      <c r="B1387" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="1388" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1388" t="s">
-        <v>426</v>
-      </c>
-      <c r="B1388" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="1389" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1389" t="s">
-        <v>427</v>
-      </c>
-      <c r="B1389" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="1390" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1390" t="s">
-        <v>428</v>
-      </c>
-      <c r="B1390" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="1391" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1391" t="s">
-        <v>429</v>
-      </c>
-      <c r="B1391" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="1392" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1392" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1392" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="1393" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1393" t="s">
-        <v>431</v>
-      </c>
-      <c r="B1393" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="1394" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1394" t="s">
-        <v>432</v>
-      </c>
-      <c r="B1394" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="1395" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1395" t="s">
-        <v>433</v>
-      </c>
-      <c r="B1395" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="1396" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1396" t="s">
-        <v>434</v>
-      </c>
-      <c r="B1396" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="1397" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1397" t="s">
-        <v>435</v>
-      </c>
-      <c r="B1397" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="1398" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1398" t="s">
-        <v>437</v>
-      </c>
-      <c r="B1398" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="1399" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1399" t="s">
-        <v>439</v>
-      </c>
-      <c r="B1399" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="1400" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1400" t="s">
-        <v>440</v>
-      </c>
-      <c r="B1400" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="1401" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1401" t="s">
-        <v>441</v>
-      </c>
-      <c r="B1401" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="1402" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1402" t="s">
-        <v>112</v>
-      </c>
-      <c r="B1402" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="1403" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1403" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1403" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="1404" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1404" t="s">
-        <v>444</v>
-      </c>
-      <c r="B1404" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="1405" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1405" t="s">
-        <v>445</v>
-      </c>
-      <c r="B1405" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="1406" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1406" t="s">
-        <v>446</v>
-      </c>
-      <c r="B1406" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="1407" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1407" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="1408" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1408" t="s">
-        <v>447</v>
-      </c>
-      <c r="B1408" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1409" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1409" t="s">
-        <v>448</v>
-      </c>
-      <c r="B1409" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="1410" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1410" t="s">
-        <v>449</v>
-      </c>
-      <c r="B1410" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="1411" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1411" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1411" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="1412" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1412" t="s">
-        <v>452</v>
-      </c>
-      <c r="B1412" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="1413" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1413" t="s">
-        <v>454</v>
-      </c>
-      <c r="B1413" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="1414" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1414" t="s">
-        <v>455</v>
-      </c>
-      <c r="B1414" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="1415" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1415" t="s">
-        <v>457</v>
-      </c>
-      <c r="B1415" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="1416" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1416" t="s">
-        <v>458</v>
-      </c>
-      <c r="B1416" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="1417" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1417" t="s">
-        <v>459</v>
-      </c>
-      <c r="B1417" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="1418" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1418" t="s">
-        <v>461</v>
-      </c>
-      <c r="B1418" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="1419" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1419" t="s">
-        <v>462</v>
-      </c>
-      <c r="B1419" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="1420" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1420" t="s">
-        <v>463</v>
-      </c>
-      <c r="B1420" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="1421" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1421" t="s">
-        <v>464</v>
-      </c>
-      <c r="B1421" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="1422" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1422" t="s">
-        <v>466</v>
-      </c>
-      <c r="B1422" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="1423" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1423" t="s">
-        <v>468</v>
-      </c>
-      <c r="B1423" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="1424" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1424" t="s">
-        <v>470</v>
-      </c>
-      <c r="B1424" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="1425" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1425" t="s">
-        <v>471</v>
-      </c>
-      <c r="B1425" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="1426" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1426" t="s">
-        <v>472</v>
-      </c>
-      <c r="B1426" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="1427" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1427" t="s">
-        <v>473</v>
-      </c>
-      <c r="B1427" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="1428" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1428" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1428" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="1429" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1429" t="s">
-        <v>475</v>
-      </c>
-      <c r="B1429" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="1430" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1430" t="s">
-        <v>476</v>
-      </c>
-      <c r="B1430" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="1431" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1431" t="s">
-        <v>477</v>
-      </c>
-      <c r="B1431" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="1432" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1432" t="s">
-        <v>478</v>
-      </c>
-      <c r="B1432" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="1433" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1433" t="s">
-        <v>479</v>
-      </c>
-      <c r="B1433" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="1434" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1434" t="s">
-        <v>480</v>
-      </c>
-      <c r="B1434" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="1435" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1435" t="s">
-        <v>481</v>
-      </c>
-      <c r="B1435" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="1436" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1436" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="1437" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1437" t="s">
-        <v>483</v>
-      </c>
-      <c r="B1437" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="1438" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1438" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="1439" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1439" t="s">
-        <v>485</v>
-      </c>
-      <c r="B1439" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="1440" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1440" t="s">
-        <v>486</v>
-      </c>
-      <c r="B1440" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="1441" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1441" t="s">
-        <v>487</v>
-      </c>
-      <c r="B1441" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="1442" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1442" t="s">
-        <v>488</v>
-      </c>
-      <c r="B1442" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="1443" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1443" t="s">
-        <v>489</v>
-      </c>
-      <c r="B1443" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="1444" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1444" t="s">
-        <v>490</v>
-      </c>
-      <c r="B1444" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="1445" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1445" t="s">
-        <v>491</v>
-      </c>
-      <c r="B1445" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="1446" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1446" t="s">
-        <v>492</v>
-      </c>
-      <c r="B1446" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="1447" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1447" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="1448" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1448" t="s">
-        <v>494</v>
-      </c>
-      <c r="B1448" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="1449" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1449" t="s">
-        <v>496</v>
-      </c>
-      <c r="B1449" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="1450" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1450" t="s">
-        <v>498</v>
-      </c>
-      <c r="B1450" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="1451" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1451" t="s">
-        <v>499</v>
-      </c>
-      <c r="B1451" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="1452" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1452" t="s">
-        <v>500</v>
-      </c>
-      <c r="B1452" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="1453" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1453" t="s">
-        <v>501</v>
-      </c>
-      <c r="B1453" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="1454" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1454" t="s">
-        <v>502</v>
-      </c>
-      <c r="B1454" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="1455" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1455" t="s">
-        <v>503</v>
-      </c>
-      <c r="B1455" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="1456" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1456" t="s">
-        <v>504</v>
-      </c>
-      <c r="B1456" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="1457" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1457" t="s">
-        <v>506</v>
-      </c>
-      <c r="B1457" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="1458" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1458" t="s">
-        <v>507</v>
-      </c>
-      <c r="B1458" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="1459" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1459" t="s">
-        <v>274</v>
-      </c>
-      <c r="B1459" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="1460" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1460" t="s">
-        <v>509</v>
-      </c>
-      <c r="B1460" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="1461" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1461" t="s">
-        <v>510</v>
-      </c>
-      <c r="B1461" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="1462" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1462" t="s">
-        <v>511</v>
-      </c>
-      <c r="B1462" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="1463" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1463" t="s">
-        <v>513</v>
-      </c>
-      <c r="B1463" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="1464" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1464" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="1465" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1465" t="s">
-        <v>515</v>
-      </c>
-      <c r="B1465" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="1466" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1466" t="s">
-        <v>516</v>
-      </c>
-      <c r="B1466" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="1467" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1467" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="1468" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1468" t="s">
-        <v>518</v>
-      </c>
-      <c r="B1468" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="1469" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1469" t="s">
-        <v>519</v>
-      </c>
-      <c r="B1469" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="1470" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1470" t="s">
-        <v>313</v>
-      </c>
-      <c r="B1470" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="1471" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1471" t="s">
-        <v>521</v>
-      </c>
-      <c r="B1471" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="1472" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1472" t="s">
-        <v>522</v>
-      </c>
-      <c r="B1472" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="1473" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1473" t="s">
-        <v>523</v>
-      </c>
-      <c r="B1473" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="1474" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1474" t="s">
-        <v>524</v>
-      </c>
-      <c r="B1474" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="1475" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1475" t="s">
-        <v>525</v>
-      </c>
-      <c r="B1475" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="1476" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1476" t="s">
-        <v>526</v>
-      </c>
-      <c r="B1476" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="1477" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1477" t="s">
-        <v>527</v>
-      </c>
-      <c r="B1477" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="1478" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1478" t="s">
-        <v>528</v>
-      </c>
-      <c r="B1478" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="1479" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1479" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="1480" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1480" t="s">
-        <v>530</v>
-      </c>
-      <c r="B1480" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="1481" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1481" t="s">
-        <v>531</v>
-      </c>
-      <c r="B1481" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="1482" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1482" t="s">
-        <v>532</v>
-      </c>
-      <c r="B1482" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="1483" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1483" t="s">
-        <v>534</v>
-      </c>
-      <c r="B1483" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="1484" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1484" t="s">
-        <v>535</v>
-      </c>
-      <c r="B1484" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="1485" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1485" t="s">
-        <v>536</v>
-      </c>
-      <c r="B1485" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="1486" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1486" t="s">
-        <v>537</v>
-      </c>
-      <c r="B1486" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="1487" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1487" t="s">
-        <v>196</v>
-      </c>
-      <c r="B1487" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="1488" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1488" t="s">
-        <v>539</v>
-      </c>
-      <c r="B1488" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="1489" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1489" t="s">
-        <v>540</v>
-      </c>
-      <c r="B1489" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="1490" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1490" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="1491" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1491" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="1492" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1492" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="1493" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1493" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="1494" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1494" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="1495" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1495" t="s">
-        <v>546</v>
-      </c>
-      <c r="B1495" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="1496" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1496" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="1497" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1497" t="s">
-        <v>548</v>
-      </c>
-      <c r="B1497" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="1498" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1498" t="s">
-        <v>549</v>
-      </c>
-      <c r="B1498" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="1499" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1499" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="1500" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1500" t="s">
-        <v>551</v>
-      </c>
-      <c r="B1500" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="1501" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1501" t="s">
-        <v>552</v>
-      </c>
-      <c r="B1501" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="1502" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1502" t="s">
-        <v>553</v>
-      </c>
-      <c r="B1502" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="1503" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1503" t="s">
-        <v>554</v>
-      </c>
-      <c r="B1503" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="1504" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1504" t="s">
-        <v>555</v>
-      </c>
-      <c r="B1504" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="1505" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1505" t="s">
-        <v>556</v>
-      </c>
-      <c r="B1505" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="1506" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1506" t="s">
-        <v>558</v>
-      </c>
-      <c r="B1506" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="1507" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1507" t="s">
-        <v>560</v>
-      </c>
-      <c r="B1507" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="1508" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1508" t="s">
-        <v>562</v>
-      </c>
-      <c r="B1508" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="1509" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1509" t="s">
-        <v>563</v>
-      </c>
-      <c r="B1509" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="1510" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1510" t="s">
-        <v>564</v>
-      </c>
-      <c r="B1510" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="1511" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1511" t="s">
-        <v>565</v>
-      </c>
-      <c r="B1511" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="1512" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1512" t="s">
-        <v>566</v>
-      </c>
-      <c r="B1512" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="1513" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1513" t="s">
-        <v>567</v>
-      </c>
-      <c r="B1513" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="1514" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1514" t="s">
-        <v>568</v>
-      </c>
-      <c r="B1514" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="1515" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1515" t="s">
-        <v>569</v>
-      </c>
-      <c r="B1515" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="1516" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1516" t="s">
-        <v>570</v>
-      </c>
-      <c r="B1516" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="1517" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1517" t="s">
-        <v>571</v>
-      </c>
-      <c r="B1517" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="1518" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1518" t="s">
-        <v>192</v>
-      </c>
-      <c r="B1518" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="1519" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1519" t="s">
-        <v>573</v>
-      </c>
-      <c r="B1519" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="1520" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1520" t="s">
-        <v>396</v>
-      </c>
-      <c r="B1520" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="1521" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1521" t="s">
-        <v>576</v>
-      </c>
-      <c r="B1521" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="1522" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1522" t="s">
-        <v>577</v>
-      </c>
-      <c r="B1522" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="1523" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1523" t="s">
-        <v>578</v>
-      </c>
-      <c r="B1523" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="1524" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1524" t="s">
-        <v>579</v>
-      </c>
-      <c r="B1524" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="1525" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1525" t="s">
-        <v>580</v>
-      </c>
-      <c r="B1525" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="1526" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1526" t="s">
-        <v>581</v>
-      </c>
-      <c r="B1526" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="1527" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1527" t="s">
-        <v>582</v>
-      </c>
-      <c r="B1527" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="1528" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1528" t="s">
-        <v>584</v>
-      </c>
-      <c r="B1528" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="1529" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1529" t="s">
-        <v>585</v>
-      </c>
-      <c r="B1529" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="1530" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1530" t="s">
-        <v>586</v>
-      </c>
-      <c r="B1530" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="1531" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1531" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="1532" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1532" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="1533" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1533" t="s">
-        <v>589</v>
-      </c>
-      <c r="B1533" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="1534" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1534" t="s">
-        <v>590</v>
-      </c>
-      <c r="B1534" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="1535" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1535" t="s">
-        <v>591</v>
-      </c>
-      <c r="B1535" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="1536" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1536" t="s">
-        <v>593</v>
-      </c>
-      <c r="B1536" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="1537" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1537" t="s">
-        <v>594</v>
-      </c>
-      <c r="B1537" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="1538" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1538" t="s">
-        <v>595</v>
-      </c>
-      <c r="B1538" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="1539" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1539" t="s">
-        <v>596</v>
-      </c>
-      <c r="B1539" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="1540" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1540" t="s">
-        <v>597</v>
-      </c>
-      <c r="B1540" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="1541" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1541" t="s">
-        <v>598</v>
-      </c>
-      <c r="B1541" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="1542" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1542" t="s">
-        <v>599</v>
-      </c>
-      <c r="B1542" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="1543" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1543" t="s">
-        <v>600</v>
-      </c>
-      <c r="B1543" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="1544" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1544" t="s">
-        <v>601</v>
-      </c>
-      <c r="B1544" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="1545" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1545" t="s">
-        <v>602</v>
-      </c>
-      <c r="B1545" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="1546" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1546" t="s">
-        <v>603</v>
-      </c>
-      <c r="B1546" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="1547" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1547" t="s">
-        <v>604</v>
-      </c>
-      <c r="B1547" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="1548" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1548" t="s">
-        <v>605</v>
-      </c>
-      <c r="B1548" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="1549" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1549" t="s">
-        <v>606</v>
-      </c>
-      <c r="B1549" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="1550" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1550" t="s">
-        <v>607</v>
-      </c>
-      <c r="B1550" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="1551" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1551" t="s">
-        <v>608</v>
-      </c>
-      <c r="B1551" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="1552" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1552" t="s">
-        <v>609</v>
-      </c>
-      <c r="B1552" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="1553" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1553" t="s">
-        <v>610</v>
-      </c>
-      <c r="B1553" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="1554" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1554" t="s">
-        <v>611</v>
-      </c>
-      <c r="B1554" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="1555" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1555" t="s">
-        <v>612</v>
-      </c>
-      <c r="B1555" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="1556" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1556" t="s">
-        <v>613</v>
-      </c>
-      <c r="B1556" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="1557" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1557" t="s">
-        <v>614</v>
-      </c>
-      <c r="B1557" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="1558" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1558" t="s">
-        <v>615</v>
-      </c>
-      <c r="B1558" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="1559" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1559" t="s">
-        <v>616</v>
-      </c>
-      <c r="B1559" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="1560" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1560" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="1561" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1561" t="s">
-        <v>618</v>
-      </c>
-      <c r="B1561" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="1562" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1562" t="s">
-        <v>619</v>
-      </c>
-      <c r="B1562" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="1563" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1563" t="s">
-        <v>620</v>
-      </c>
-      <c r="B1563" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="1564" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1564" t="s">
-        <v>621</v>
-      </c>
-      <c r="B1564" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="1565" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1565" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="1566" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1566" t="s">
-        <v>623</v>
-      </c>
-      <c r="B1566" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="1567" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1567" t="s">
-        <v>624</v>
-      </c>
-      <c r="B1567" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="1568" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1568" t="s">
-        <v>625</v>
-      </c>
-      <c r="B1568" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="1569" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1569" t="s">
-        <v>627</v>
-      </c>
-      <c r="B1569" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="1570" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1570" t="s">
-        <v>629</v>
-      </c>
-      <c r="B1570" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="1571" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1571" t="s">
-        <v>630</v>
-      </c>
-      <c r="B1571" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="1572" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1572" t="s">
-        <v>631</v>
-      </c>
-      <c r="B1572" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="1573" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1573" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="1574" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1574" t="s">
-        <v>633</v>
-      </c>
-      <c r="B1574" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="1575" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1575" t="s">
-        <v>635</v>
-      </c>
-      <c r="B1575" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="1576" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1576" t="s">
-        <v>636</v>
-      </c>
-      <c r="B1576" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="1577" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1577" t="s">
-        <v>637</v>
-      </c>
-      <c r="B1577" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="1578" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1578" t="s">
-        <v>638</v>
-      </c>
-      <c r="B1578" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="1579" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1579" t="s">
-        <v>639</v>
-      </c>
-      <c r="B1579" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="1580" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1580" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1580" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="1581" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1581" t="s">
-        <v>641</v>
-      </c>
-      <c r="B1581" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="1582" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1582" t="s">
-        <v>642</v>
-      </c>
-      <c r="B1582" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="1583" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1583" t="s">
-        <v>643</v>
-      </c>
-      <c r="B1583" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="1584" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1584" t="s">
-        <v>644</v>
-      </c>
-      <c r="B1584" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="1585" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1585" t="s">
-        <v>646</v>
-      </c>
-      <c r="B1585" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="1586" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1586" t="s">
-        <v>648</v>
-      </c>
-      <c r="B1586" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="1587" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1587" t="s">
-        <v>649</v>
-      </c>
-      <c r="B1587" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="1588" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1588" t="s">
-        <v>650</v>
-      </c>
-      <c r="B1588" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="1589" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1589" t="s">
-        <v>651</v>
-      </c>
-      <c r="B1589" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="1590" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1590" t="s">
-        <v>652</v>
-      </c>
-      <c r="B1590" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="1591" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1591" t="s">
-        <v>653</v>
-      </c>
-      <c r="B1591" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="1592" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1592" t="s">
-        <v>240</v>
-      </c>
-      <c r="B1592" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="1593" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1593" t="s">
-        <v>655</v>
-      </c>
-      <c r="B1593" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="1594" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1594" t="s">
-        <v>656</v>
-      </c>
-      <c r="B1594" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="1595" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1595" t="s">
-        <v>657</v>
-      </c>
-      <c r="B1595" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="1596" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1596" t="s">
-        <v>658</v>
-      </c>
-      <c r="B1596" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="1597" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1597" t="s">
-        <v>659</v>
-      </c>
-      <c r="B1597" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="1598" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1598" t="s">
-        <v>660</v>
-      </c>
-      <c r="B1598" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="1599" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1599" t="s">
-        <v>661</v>
-      </c>
-      <c r="B1599" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="1600" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1600" t="s">
-        <v>662</v>
-      </c>
-      <c r="B1600" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="1601" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1601" t="s">
-        <v>663</v>
-      </c>
-      <c r="B1601" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="1602" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1602" t="s">
-        <v>664</v>
-      </c>
-      <c r="B1602" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="1603" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1603" t="s">
-        <v>665</v>
-      </c>
-      <c r="B1603" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="1604" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1604" t="s">
-        <v>666</v>
-      </c>
-      <c r="B1604" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="1605" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1605" t="s">
-        <v>667</v>
-      </c>
-      <c r="B1605" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="1606" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1606" t="s">
-        <v>669</v>
-      </c>
-      <c r="B1606" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="1607" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1607" t="s">
-        <v>670</v>
-      </c>
-      <c r="B1607" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="1608" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1608" t="s">
-        <v>671</v>
-      </c>
-      <c r="B1608" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="1609" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1609" t="s">
-        <v>672</v>
-      </c>
-      <c r="B1609" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="1610" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1610" t="s">
-        <v>674</v>
-      </c>
-      <c r="B1610" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="1611" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1611" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1611" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="1612" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1612" t="s">
-        <v>676</v>
-      </c>
-      <c r="B1612" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="1613" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1613" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="1614" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1614" t="s">
-        <v>678</v>
-      </c>
-      <c r="B1614" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="1615" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1615" t="s">
-        <v>679</v>
-      </c>
-      <c r="B1615" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="1616" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1616" t="s">
-        <v>680</v>
-      </c>
-      <c r="B1616" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="1617" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1617" t="s">
-        <v>681</v>
-      </c>
-      <c r="B1617" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="1618" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1618" t="s">
-        <v>682</v>
-      </c>
-      <c r="B1618" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="1619" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1619" t="s">
-        <v>683</v>
-      </c>
-      <c r="B1619" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="1620" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1620" t="s">
-        <v>684</v>
-      </c>
-      <c r="B1620" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="1621" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1621" t="s">
-        <v>685</v>
-      </c>
-      <c r="B1621" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="1622" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1622" t="s">
-        <v>686</v>
-      </c>
-      <c r="B1622" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="1623" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1623" t="s">
-        <v>688</v>
-      </c>
-      <c r="B1623" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="1624" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1624" t="s">
-        <v>689</v>
-      </c>
-      <c r="B1624" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="1625" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1625" t="s">
-        <v>690</v>
-      </c>
-      <c r="B1625" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="1626" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1626" t="s">
-        <v>691</v>
-      </c>
-      <c r="B1626" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="1627" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1627" t="s">
-        <v>692</v>
-      </c>
-      <c r="B1627" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="1628" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1628" t="s">
-        <v>693</v>
-      </c>
-      <c r="B1628" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="1629" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1629" t="s">
-        <v>694</v>
-      </c>
-      <c r="B1629" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="1630" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1630" t="s">
-        <v>695</v>
-      </c>
-      <c r="B1630" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="1631" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1631" t="s">
-        <v>696</v>
-      </c>
-      <c r="B1631" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="1632" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1632" t="s">
-        <v>697</v>
-      </c>
-      <c r="B1632" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="1633" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1633" t="s">
-        <v>698</v>
-      </c>
-      <c r="B1633" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="1634" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1634" t="s">
-        <v>699</v>
-      </c>
-      <c r="B1634" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="1635" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1635" t="s">
-        <v>700</v>
-      </c>
-      <c r="B1635" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="1636" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1636" t="s">
-        <v>701</v>
-      </c>
-      <c r="B1636" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="1637" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1637" t="s">
-        <v>702</v>
-      </c>
-      <c r="B1637" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="1638" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1638" t="s">
-        <v>703</v>
-      </c>
-      <c r="B1638" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="1639" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1639" t="s">
-        <v>704</v>
-      </c>
-      <c r="B1639" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="1640" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1640" t="s">
-        <v>705</v>
-      </c>
-      <c r="B1640" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="1641" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1641" t="s">
-        <v>706</v>
-      </c>
-      <c r="B1641" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="1642" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1642" t="s">
-        <v>707</v>
-      </c>
-      <c r="B1642" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="1643" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1643" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="1644" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1644" t="s">
-        <v>709</v>
-      </c>
-      <c r="B1644" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="1645" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1645" t="s">
-        <v>710</v>
-      </c>
-      <c r="B1645" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="1646" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1646" t="s">
-        <v>711</v>
-      </c>
-      <c r="B1646" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="1647" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1647" t="s">
-        <v>712</v>
-      </c>
-      <c r="B1647" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="1648" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1648" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="1649" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1649" t="s">
-        <v>714</v>
-      </c>
-      <c r="B1649" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="1650" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1650" t="s">
-        <v>715</v>
-      </c>
-      <c r="B1650" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="1651" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1651" t="s">
-        <v>716</v>
-      </c>
-      <c r="B1651" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="1652" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1652" t="s">
-        <v>717</v>
-      </c>
-      <c r="B1652" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="1653" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1653" t="s">
-        <v>718</v>
-      </c>
-      <c r="B1653" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="1654" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1654" t="s">
-        <v>719</v>
-      </c>
-      <c r="B1654" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="1655" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1655" t="s">
-        <v>721</v>
-      </c>
-      <c r="B1655" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="1656" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1656" t="s">
-        <v>722</v>
-      </c>
-      <c r="B1656" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="1657" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1657" t="s">
-        <v>723</v>
-      </c>
-      <c r="B1657" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="1658" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1658" t="s">
-        <v>725</v>
-      </c>
-      <c r="B1658" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="1659" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1659" t="s">
-        <v>727</v>
-      </c>
-      <c r="B1659" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="1660" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1660" t="s">
-        <v>728</v>
-      </c>
-      <c r="B1660" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="1661" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1661" t="s">
-        <v>729</v>
-      </c>
-      <c r="B1661" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="1662" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1662" t="s">
-        <v>730</v>
-      </c>
-      <c r="B1662" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="1663" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1663" t="s">
-        <v>731</v>
-      </c>
-      <c r="B1663" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="1664" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1664" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="1665" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1665" t="s">
-        <v>733</v>
-      </c>
-      <c r="B1665" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="1666" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1666" t="s">
-        <v>734</v>
-      </c>
-      <c r="B1666" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="1667" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1667" t="s">
-        <v>735</v>
-      </c>
-      <c r="B1667" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="1668" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1668" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="1669" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1669" t="s">
-        <v>737</v>
-      </c>
-      <c r="B1669" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="1670" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1670" t="s">
-        <v>738</v>
-      </c>
-      <c r="B1670" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="1671" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1671" t="s">
-        <v>739</v>
-      </c>
-      <c r="B1671" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="1672" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1672" t="s">
-        <v>740</v>
-      </c>
-      <c r="B1672" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="1673" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1673" t="s">
-        <v>741</v>
-      </c>
-      <c r="B1673" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="1674" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1674" t="s">
-        <v>742</v>
-      </c>
-      <c r="B1674" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="1675" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1675" t="s">
-        <v>743</v>
-      </c>
-      <c r="B1675" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="1676" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1676" t="s">
-        <v>744</v>
-      </c>
-      <c r="B1676" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="1677" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1677" t="s">
-        <v>745</v>
-      </c>
-      <c r="B1677" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="1678" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1678" t="s">
-        <v>746</v>
-      </c>
-      <c r="B1678" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="1679" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1679" t="s">
-        <v>747</v>
-      </c>
-      <c r="B1679" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="1680" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1680" t="s">
-        <v>748</v>
-      </c>
-      <c r="B1680" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="1681" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1681" t="s">
-        <v>749</v>
-      </c>
-      <c r="B1681" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="1682" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1682" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="1683" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1683" t="s">
-        <v>751</v>
-      </c>
-      <c r="B1683" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="1684" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1684" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1684" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="1685" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1685" t="s">
-        <v>753</v>
-      </c>
-      <c r="B1685" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="1686" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1686" t="s">
-        <v>754</v>
-      </c>
-      <c r="B1686" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="1687" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1687" t="s">
-        <v>755</v>
-      </c>
-      <c r="B1687" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="1688" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1688" t="s">
-        <v>756</v>
-      </c>
-      <c r="B1688" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="1689" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1689" t="s">
-        <v>757</v>
-      </c>
-      <c r="B1689" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="1690" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1690" t="s">
-        <v>758</v>
-      </c>
-      <c r="B1690" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="1691" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1691" t="s">
-        <v>759</v>
-      </c>
-      <c r="B1691" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="1692" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1692" t="s">
-        <v>761</v>
-      </c>
-      <c r="B1692" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="1693" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1693" t="s">
-        <v>762</v>
-      </c>
-      <c r="B1693" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="1694" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1694" t="s">
-        <v>763</v>
-      </c>
-      <c r="B1694" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="1695" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1695" t="s">
-        <v>764</v>
-      </c>
-      <c r="B1695" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="1696" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1696" t="s">
-        <v>765</v>
-      </c>
-      <c r="B1696" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="1697" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1697" t="s">
-        <v>766</v>
-      </c>
-      <c r="B1697" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="1698" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1698" t="s">
-        <v>767</v>
-      </c>
-      <c r="B1698" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="1699" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1699" t="s">
-        <v>768</v>
-      </c>
-      <c r="B1699" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="1700" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1700" t="s">
-        <v>769</v>
-      </c>
-      <c r="B1700" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="1701" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1701" t="s">
-        <v>770</v>
-      </c>
-      <c r="B1701" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="1702" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1702" t="s">
-        <v>772</v>
-      </c>
-      <c r="B1702" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="1703" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1703" t="s">
-        <v>774</v>
-      </c>
-      <c r="B1703" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="1704" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1704" t="s">
-        <v>775</v>
-      </c>
-      <c r="B1704" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="1705" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1705" t="s">
-        <v>776</v>
-      </c>
-      <c r="B1705" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="1706" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1706" t="s">
-        <v>777</v>
-      </c>
-      <c r="B1706" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="1707" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1707" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="1708" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1708" t="s">
-        <v>779</v>
-      </c>
-      <c r="B1708" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="1709" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1709" t="s">
-        <v>780</v>
-      </c>
-      <c r="B1709" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="1710" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1710" t="s">
-        <v>781</v>
-      </c>
-      <c r="B1710" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="1711" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1711" t="s">
-        <v>782</v>
-      </c>
-      <c r="B1711" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="1712" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1712" t="s">
-        <v>783</v>
-      </c>
-      <c r="B1712" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="1713" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1713" t="s">
-        <v>784</v>
-      </c>
-      <c r="B1713" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="1714" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1714" t="s">
-        <v>785</v>
-      </c>
-      <c r="B1714" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="1715" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1715" t="s">
-        <v>786</v>
-      </c>
-      <c r="B1715" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="1716" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1716" t="s">
-        <v>787</v>
-      </c>
-      <c r="B1716" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="1717" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1717" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1717" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="1718" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1718" t="s">
-        <v>789</v>
-      </c>
-      <c r="B1718" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="1719" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1719" t="s">
-        <v>790</v>
-      </c>
-      <c r="B1719" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="1720" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1720" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="1721" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1721" t="s">
-        <v>792</v>
-      </c>
-      <c r="B1721" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="1722" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1722" t="s">
-        <v>793</v>
-      </c>
-      <c r="B1722" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="1723" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1723" t="s">
-        <v>794</v>
-      </c>
-      <c r="B1723" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="1724" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1724" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="1725" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1725" t="s">
-        <v>796</v>
-      </c>
-      <c r="B1725" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="1726" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1726" t="s">
-        <v>797</v>
-      </c>
-      <c r="B1726" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="1727" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1727" t="s">
-        <v>798</v>
-      </c>
-      <c r="B1727" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="1728" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1728" t="s">
-        <v>800</v>
-      </c>
-      <c r="B1728" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="1729" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1729" t="s">
-        <v>801</v>
-      </c>
-      <c r="B1729" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="1730" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1730" t="s">
-        <v>802</v>
-      </c>
-      <c r="B1730" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="1731" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1731" t="s">
-        <v>803</v>
-      </c>
-      <c r="B1731" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="1732" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1732" t="s">
-        <v>804</v>
-      </c>
-      <c r="B1732" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="1733" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1733" t="s">
-        <v>805</v>
-      </c>
-      <c r="B1733" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="1734" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1734" t="s">
-        <v>806</v>
-      </c>
-      <c r="B1734" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="1735" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1735" t="s">
-        <v>807</v>
-      </c>
-      <c r="B1735" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="1736" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1736" t="s">
-        <v>237</v>
-      </c>
-      <c r="B1736" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="1737" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1737" t="s">
-        <v>809</v>
-      </c>
-      <c r="B1737" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="1738" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1738" t="s">
-        <v>647</v>
-      </c>
-      <c r="B1738" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="1739" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1739" t="s">
-        <v>810</v>
-      </c>
-      <c r="B1739" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="1740" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1740" t="s">
-        <v>811</v>
-      </c>
-      <c r="B1740" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="1741" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1741" t="s">
-        <v>813</v>
-      </c>
-      <c r="B1741" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="1742" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1742" t="s">
-        <v>815</v>
-      </c>
-      <c r="B1742" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="1743" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1743" t="s">
-        <v>816</v>
-      </c>
-      <c r="B1743" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="1744" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1744" t="s">
-        <v>817</v>
-      </c>
-      <c r="B1744" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="1745" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1745" t="s">
-        <v>818</v>
-      </c>
-      <c r="B1745" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="1746" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1746" t="s">
-        <v>819</v>
-      </c>
-      <c r="B1746" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="1747" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1747" t="s">
-        <v>820</v>
-      </c>
-      <c r="B1747" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="1748" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1748" t="s">
-        <v>821</v>
-      </c>
-      <c r="B1748" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="1749" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1749" t="s">
-        <v>822</v>
-      </c>
-      <c r="B1749" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="1750" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1750" t="s">
-        <v>823</v>
-      </c>
-      <c r="B1750" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="1751" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1751" t="s">
-        <v>824</v>
-      </c>
-      <c r="B1751" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="1752" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1752" t="s">
-        <v>825</v>
-      </c>
-      <c r="B1752" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="1753" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1753" t="s">
-        <v>826</v>
-      </c>
-      <c r="B1753" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="1754" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1754" t="s">
-        <v>827</v>
-      </c>
-      <c r="B1754" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="1755" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1755" t="s">
-        <v>828</v>
-      </c>
-      <c r="B1755" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="1756" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1756" t="s">
-        <v>829</v>
-      </c>
-      <c r="B1756" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="1757" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1757" t="s">
-        <v>830</v>
-      </c>
-      <c r="B1757" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="1758" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1758" t="s">
-        <v>831</v>
-      </c>
-      <c r="B1758" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="1759" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1759" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="1760" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1760" t="s">
-        <v>833</v>
-      </c>
-      <c r="B1760" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="1761" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1761" t="s">
-        <v>834</v>
-      </c>
-      <c r="B1761" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="1762" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1762" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="1763" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1763" t="s">
-        <v>836</v>
-      </c>
-      <c r="B1763" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="1764" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1764" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="1765" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1765" t="s">
-        <v>837</v>
-      </c>
-      <c r="B1765" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="1766" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1766" t="s">
-        <v>838</v>
-      </c>
-      <c r="B1766" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="1767" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1767" t="s">
-        <v>839</v>
-      </c>
-      <c r="B1767" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="1768" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1768" t="s">
-        <v>840</v>
-      </c>
-      <c r="B1768" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="1769" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1769" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="1770" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1770" t="s">
-        <v>842</v>
-      </c>
-      <c r="B1770" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="1771" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1771" t="s">
-        <v>843</v>
-      </c>
-      <c r="B1771" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="1772" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1772" t="s">
-        <v>844</v>
-      </c>
-      <c r="B1772" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="1773" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1773" t="s">
-        <v>845</v>
-      </c>
-      <c r="B1773" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="1774" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1774" t="s">
-        <v>846</v>
-      </c>
-      <c r="B1774" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="1775" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1775" t="s">
-        <v>847</v>
-      </c>
-      <c r="B1775" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="1776" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1776" t="s">
-        <v>848</v>
-      </c>
-      <c r="B1776" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="1777" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1777" t="s">
-        <v>849</v>
-      </c>
-      <c r="B1777" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="1778" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1778" t="s">
-        <v>850</v>
-      </c>
-      <c r="B1778" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="1779" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1779" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="1780" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1780" t="s">
-        <v>852</v>
-      </c>
-      <c r="B1780" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="1781" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1781" t="s">
-        <v>853</v>
-      </c>
-      <c r="B1781" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="1782" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1782" t="s">
-        <v>854</v>
-      </c>
-      <c r="B1782" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="1783" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1783" t="s">
-        <v>855</v>
-      </c>
-      <c r="B1783" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="1784" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1784" t="s">
-        <v>856</v>
-      </c>
-      <c r="B1784" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="1785" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1785" t="s">
-        <v>858</v>
-      </c>
-      <c r="B1785" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="1786" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1786" t="s">
-        <v>859</v>
-      </c>
-      <c r="B1786" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="1787" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1787" t="s">
-        <v>861</v>
-      </c>
-      <c r="B1787" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="1788" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1788" t="s">
-        <v>862</v>
-      </c>
-      <c r="B1788" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="1789" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1789" t="s">
-        <v>863</v>
-      </c>
-      <c r="B1789" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="1790" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1790" t="s">
-        <v>864</v>
-      </c>
-      <c r="B1790" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="1791" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1791" t="s">
-        <v>865</v>
-      </c>
-      <c r="B1791" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="1792" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1792" t="s">
-        <v>866</v>
-      </c>
-      <c r="B1792" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="1793" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1793" t="s">
-        <v>868</v>
-      </c>
-      <c r="B1793" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="1794" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1794" t="s">
-        <v>869</v>
-      </c>
-      <c r="B1794" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="1795" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1795" t="s">
-        <v>870</v>
-      </c>
-      <c r="B1795" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="1796" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1796" t="s">
-        <v>871</v>
-      </c>
-      <c r="B1796" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="1797" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1797" t="s">
-        <v>872</v>
-      </c>
-      <c r="B1797" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="1798" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1798" t="s">
-        <v>873</v>
-      </c>
-      <c r="B1798" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="1799" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1799" t="s">
-        <v>874</v>
-      </c>
-      <c r="B1799" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="1800" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1800" t="s">
-        <v>875</v>
-      </c>
-      <c r="B1800" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="1801" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1801" t="s">
-        <v>876</v>
-      </c>
-      <c r="B1801" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="1802" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1802" t="s">
-        <v>877</v>
-      </c>
-      <c r="B1802" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="1803" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1803" t="s">
-        <v>185</v>
-      </c>
-      <c r="B1803" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="1804" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1804" t="s">
-        <v>879</v>
-      </c>
-      <c r="B1804" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="1805" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1805" t="s">
-        <v>880</v>
-      </c>
-      <c r="B1805" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="1806" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1806" t="s">
-        <v>881</v>
-      </c>
-      <c r="B1806" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="1807" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1807" t="s">
-        <v>882</v>
-      </c>
-      <c r="B1807" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="1808" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1808" t="s">
-        <v>883</v>
-      </c>
-      <c r="B1808" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="1809" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1809" t="s">
-        <v>884</v>
-      </c>
-      <c r="B1809" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="1810" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1810" t="s">
-        <v>885</v>
-      </c>
-      <c r="B1810" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="1811" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1811" t="s">
-        <v>886</v>
-      </c>
-      <c r="B1811" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="1812" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1812" t="s">
-        <v>887</v>
-      </c>
-      <c r="B1812" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="1813" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1813" t="s">
-        <v>888</v>
-      </c>
-      <c r="B1813" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="1814" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1814" t="s">
-        <v>889</v>
-      </c>
-      <c r="B1814" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="1815" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1815" t="s">
-        <v>890</v>
-      </c>
-      <c r="B1815" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="1816" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1816" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="1817" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1817" t="s">
-        <v>892</v>
-      </c>
-      <c r="B1817" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="1818" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1818" t="s">
-        <v>893</v>
-      </c>
-      <c r="B1818" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="1819" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1819" t="s">
-        <v>894</v>
-      </c>
-      <c r="B1819" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="1820" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1820" t="s">
-        <v>895</v>
-      </c>
-      <c r="B1820" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="1821" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1821" t="s">
-        <v>896</v>
-      </c>
-      <c r="B1821" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="1822" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1822" t="s">
-        <v>898</v>
-      </c>
-      <c r="B1822" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="1823" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1823" t="s">
-        <v>899</v>
-      </c>
-      <c r="B1823" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="1824" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1824" t="s">
-        <v>900</v>
-      </c>
-      <c r="B1824" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="1825" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1825" t="s">
-        <v>901</v>
-      </c>
-      <c r="B1825" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="1826" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1826" t="s">
-        <v>902</v>
-      </c>
-      <c r="B1826" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="1827" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1827" t="s">
-        <v>903</v>
-      </c>
-      <c r="B1827" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="1828" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1828" t="s">
-        <v>904</v>
-      </c>
-      <c r="B1828" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="1829" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1829" t="s">
-        <v>905</v>
-      </c>
-      <c r="B1829" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="1830" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1830" t="s">
-        <v>906</v>
-      </c>
-      <c r="B1830" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="1831" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1831" t="s">
-        <v>907</v>
-      </c>
-      <c r="B1831" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="1832" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1832" t="s">
-        <v>908</v>
-      </c>
-      <c r="B1832" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="1833" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1833" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="1834" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1834" t="s">
-        <v>910</v>
-      </c>
-      <c r="B1834" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="1835" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1835" t="s">
-        <v>911</v>
-      </c>
-      <c r="B1835" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="1836" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1836" t="s">
-        <v>912</v>
-      </c>
-      <c r="B1836" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="1837" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1837" t="s">
-        <v>913</v>
-      </c>
-      <c r="B1837" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="1838" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1838" t="s">
-        <v>914</v>
-      </c>
-      <c r="B1838" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="1839" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1839" t="s">
-        <v>915</v>
-      </c>
-      <c r="B1839" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="1840" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1840" t="s">
-        <v>916</v>
-      </c>
-      <c r="B1840" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="1841" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1841" t="s">
-        <v>917</v>
-      </c>
-      <c r="B1841" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="1842" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1842" t="s">
-        <v>918</v>
-      </c>
-      <c r="B1842" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="1843" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1843" t="s">
-        <v>919</v>
-      </c>
-      <c r="B1843" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="1844" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1844" t="s">
-        <v>920</v>
-      </c>
-      <c r="B1844" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="1845" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1845" t="s">
-        <v>921</v>
-      </c>
-      <c r="B1845" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="1846" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1846" t="s">
-        <v>922</v>
-      </c>
-      <c r="B1846" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="1847" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1847" t="s">
-        <v>923</v>
-      </c>
-      <c r="B1847" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="1848" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1848" t="s">
-        <v>924</v>
-      </c>
-      <c r="B1848" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="1849" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1849" t="s">
-        <v>925</v>
-      </c>
-      <c r="B1849" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="1850" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1850" t="s">
-        <v>926</v>
-      </c>
-      <c r="B1850" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="1851" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1851" t="s">
-        <v>927</v>
-      </c>
-      <c r="B1851" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="1852" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1852" t="s">
-        <v>928</v>
-      </c>
-      <c r="B1852" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="1853" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1853" t="s">
-        <v>929</v>
-      </c>
-      <c r="B1853" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="1854" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1854" t="s">
-        <v>930</v>
-      </c>
-      <c r="B1854" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="1855" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1855" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="1856" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1856" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1856" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="1857" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1857" t="s">
-        <v>933</v>
-      </c>
-      <c r="B1857" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="1858" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1858" t="s">
-        <v>934</v>
-      </c>
-      <c r="B1858" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="1859" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1859" t="s">
-        <v>935</v>
-      </c>
-      <c r="B1859" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="1860" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1860" t="s">
-        <v>936</v>
-      </c>
-      <c r="B1860" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="1861" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1861" t="s">
-        <v>937</v>
-      </c>
-      <c r="B1861" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="1862" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1862" t="s">
-        <v>938</v>
-      </c>
-      <c r="B1862" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="1863" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1863" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1863" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="1864" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1864" t="s">
-        <v>940</v>
-      </c>
-      <c r="B1864" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="1865" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1865" t="s">
-        <v>941</v>
-      </c>
-      <c r="B1865" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="1866" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1866" t="s">
-        <v>942</v>
-      </c>
-      <c r="B1866" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="1867" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1867" t="s">
-        <v>943</v>
-      </c>
-      <c r="B1867" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="1868" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1868" t="s">
-        <v>944</v>
-      </c>
-      <c r="B1868" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="1869" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1869" t="s">
-        <v>945</v>
-      </c>
-      <c r="B1869" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="1870" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1870" t="s">
-        <v>946</v>
-      </c>
-      <c r="B1870" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="1871" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1871" t="s">
-        <v>947</v>
-      </c>
-      <c r="B1871" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="1872" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1872" t="s">
-        <v>948</v>
-      </c>
-      <c r="B1872" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="1873" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1873" t="s">
-        <v>949</v>
-      </c>
-      <c r="B1873" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="1874" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1874" t="s">
-        <v>950</v>
-      </c>
-      <c r="B1874" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="1875" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1875" t="s">
-        <v>951</v>
-      </c>
-      <c r="B1875" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="1876" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1876" t="s">
-        <v>952</v>
-      </c>
-      <c r="B1876" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="1877" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1877" t="s">
-        <v>953</v>
-      </c>
-      <c r="B1877" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="1878" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1878" t="s">
-        <v>954</v>
-      </c>
-      <c r="B1878" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="1879" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1879" t="s">
-        <v>956</v>
-      </c>
-      <c r="B1879" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="1880" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1880" t="s">
-        <v>957</v>
-      </c>
-      <c r="B1880" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="1881" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1881" t="s">
-        <v>958</v>
-      </c>
-      <c r="B1881" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="1882" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1882" t="s">
-        <v>959</v>
-      </c>
-      <c r="B1882" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="1883" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1883" t="s">
-        <v>960</v>
-      </c>
-      <c r="B1883" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="1884" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1884" t="s">
-        <v>130</v>
-      </c>
-      <c r="B1884" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="1885" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1885" t="s">
-        <v>962</v>
-      </c>
-      <c r="B1885" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="1886" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1886" t="s">
-        <v>963</v>
-      </c>
-      <c r="B1886" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="1887" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1887" t="s">
-        <v>965</v>
-      </c>
-      <c r="B1887" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="1888" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1888" t="s">
-        <v>967</v>
-      </c>
-      <c r="B1888" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="1889" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1889" t="s">
-        <v>968</v>
-      </c>
-      <c r="B1889" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="1890" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1890" t="s">
-        <v>969</v>
-      </c>
-      <c r="B1890" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="1891" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1891" t="s">
-        <v>970</v>
-      </c>
-      <c r="B1891" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="1892" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1892" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="1893" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1893" t="s">
-        <v>972</v>
-      </c>
-      <c r="B1893" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="1894" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1894" t="s">
-        <v>973</v>
-      </c>
-      <c r="B1894" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="1895" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1895" t="s">
-        <v>974</v>
-      </c>
-      <c r="B1895" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="1896" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1896" t="s">
-        <v>975</v>
-      </c>
-      <c r="B1896" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="1897" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1897" t="s">
-        <v>976</v>
-      </c>
-      <c r="B1897" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="1898" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1898" t="s">
-        <v>977</v>
-      </c>
-      <c r="B1898" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="1899" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1899" t="s">
-        <v>978</v>
-      </c>
-      <c r="B1899" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="1900" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1900" t="s">
-        <v>979</v>
-      </c>
-      <c r="B1900" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="1901" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1901" t="s">
-        <v>980</v>
-      </c>
-      <c r="B1901" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="1902" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1902" t="s">
-        <v>981</v>
-      </c>
-      <c r="B1902" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="1903" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1903" t="s">
-        <v>982</v>
-      </c>
-      <c r="B1903" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="1904" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1904" t="s">
-        <v>983</v>
-      </c>
-      <c r="B1904" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="1905" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1905" t="s">
-        <v>984</v>
-      </c>
-      <c r="B1905" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="1906" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1906" t="s">
-        <v>985</v>
-      </c>
-      <c r="B1906" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="1907" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1907" t="s">
-        <v>986</v>
-      </c>
-      <c r="B1907" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="1908" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1908" t="s">
-        <v>987</v>
-      </c>
-      <c r="B1908" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="1909" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1909" t="s">
-        <v>988</v>
-      </c>
-      <c r="B1909" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="1910" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1910" t="s">
-        <v>989</v>
-      </c>
-      <c r="B1910" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="1911" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1911" t="s">
-        <v>991</v>
-      </c>
-      <c r="B1911" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="1912" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1912" t="s">
-        <v>993</v>
-      </c>
-      <c r="B1912" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="1913" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1913" t="s">
-        <v>994</v>
-      </c>
-      <c r="B1913" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="1914" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1914" t="s">
-        <v>995</v>
-      </c>
-      <c r="B1914" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="1915" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1915" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1915" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="1916" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1916" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="1917" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1917" t="s">
-        <v>998</v>
-      </c>
-      <c r="B1917" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="1918" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1918" t="s">
-        <v>999</v>
-      </c>
-      <c r="B1918" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="1919" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1919" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B1919" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="1920" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1920" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B1920" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="1921" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1921" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B1921" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="1922" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1922" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B1922" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="1923" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1923" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B1923" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="1924" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1924" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B1924" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="1925" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1925" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B1925" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="1926" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1926" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B1926" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="1927" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1927" t="s">
-        <v>342</v>
-      </c>
-      <c r="B1927" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="1928" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1928" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B1928" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="1929" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1929" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B1929" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="1930" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1930" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B1930" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="1931" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1931" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B1931" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="1932" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1932" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B1932" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="1933" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1933" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B1933" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="1934" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1934" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B1934" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="1935" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1935" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B1935" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="1936" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1936" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B1936" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="1937" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1937" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1937" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="1938" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1938" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B1938" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="1939" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1939" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B1939" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="1940" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1940" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B1940" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="1941" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1941" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B1941" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="1942" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1942" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B1942" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="1943" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1943" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B1943" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="1944" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1944" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="1945" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1945" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B1945" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="1946" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1946" t="s">
-        <v>1028</v>
-      </c>
-      <c r="B1946" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="1947" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1947" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="1948" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1948" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B1948" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="1949" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1949" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B1949" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="1950" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1950" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B1950" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="1951" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1951" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B1951" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="1952" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1952" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B1952" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="1953" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1953" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B1953" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="1954" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1954" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B1954" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="1955" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1955" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B1955" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="1956" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1956" t="s">
-        <v>1041</v>
-      </c>
-      <c r="B1956" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="1957" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1957" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B1957" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="1958" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1958" t="s">
-        <v>1044</v>
-      </c>
-      <c r="B1958" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="1959" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1959" t="s">
-        <v>724</v>
-      </c>
-      <c r="B1959" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="1960" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1960" t="s">
-        <v>1045</v>
-      </c>
-      <c r="B1960" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="1961" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1961" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B1961" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="1962" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1962" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B1962" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="1963" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1963" t="s">
-        <v>1048</v>
-      </c>
-      <c r="B1963" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="1964" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1964" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B1964" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="1965" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1965" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="1966" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1966" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B1966" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="1967" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1967" t="s">
-        <v>1052</v>
-      </c>
-      <c r="B1967" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="1968" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1968" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B1968" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="1969" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1969" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B1969" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="1970" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1970" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B1970" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="1971" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1971" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B1971" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="1972" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1972" t="s">
-        <v>1057</v>
-      </c>
-      <c r="B1972" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="1973" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1973" t="s">
-        <v>176</v>
-      </c>
-      <c r="B1973" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="1974" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1974" t="s">
-        <v>1059</v>
-      </c>
-      <c r="B1974" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="1975" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1975" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B1975" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="1976" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1976" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B1976" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="1977" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1977" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B1977" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="1978" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1978" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B1978" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="1979" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1979" t="s">
-        <v>1064</v>
-      </c>
-      <c r="B1979" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="1980" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1980" t="s">
-        <v>135</v>
-      </c>
-      <c r="B1980" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="1981" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1981" t="s">
-        <v>1066</v>
-      </c>
-      <c r="B1981" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="1982" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1982" t="s">
-        <v>1068</v>
-      </c>
-      <c r="B1982" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="1983" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1983" t="s">
-        <v>1070</v>
-      </c>
-      <c r="B1983" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="1984" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1984" t="s">
-        <v>897</v>
-      </c>
-      <c r="B1984" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="1985" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1985" t="s">
-        <v>1073</v>
-      </c>
-      <c r="B1985" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="1986" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1986" t="s">
-        <v>1074</v>
-      </c>
-      <c r="B1986" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="1987" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1987" t="s">
-        <v>1075</v>
-      </c>
-      <c r="B1987" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="1988" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1988" t="s">
-        <v>1076</v>
-      </c>
-      <c r="B1988" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="1989" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1989" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="1990" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1990" t="s">
-        <v>1078</v>
-      </c>
-      <c r="B1990" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="1991" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1991" t="s">
-        <v>1079</v>
-      </c>
-      <c r="B1991" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="1992" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1992" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B1992" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="1993" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1993" t="s">
-        <v>1081</v>
-      </c>
-      <c r="B1993" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="1994" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1994" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B1994" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="1995" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1995" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B1995" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="1996" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1996" t="s">
-        <v>1084</v>
-      </c>
-      <c r="B1996" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="1997" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1997" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="1998" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1998" t="s">
-        <v>1086</v>
-      </c>
-      <c r="B1998" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="1999" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1999" t="s">
-        <v>1087</v>
-      </c>
-      <c r="B1999" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="2000" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2000" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="2001" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2001" t="s">
-        <v>1089</v>
-      </c>
-      <c r="B2001" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="2002" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2002" t="s">
-        <v>1090</v>
-      </c>
-      <c r="B2002" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="2003" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2003" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="2004" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2004" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="2005" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2005" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B2005" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="2006" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2006" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B2006" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="2007" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2007" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B2007" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="2008" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2008" t="s">
-        <v>1096</v>
-      </c>
-      <c r="B2008" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="2009" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2009" t="s">
-        <v>1097</v>
-      </c>
-      <c r="B2009" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="2010" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2010" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B2010" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="2011" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2011" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B2011" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="2012" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2012" t="s">
-        <v>281</v>
-      </c>
-      <c r="B2012" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="2013" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2013" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2013" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="2014" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2014" t="s">
-        <v>1103</v>
-      </c>
-      <c r="B2014" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="2015" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2015" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2016" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2016" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2016" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="2017" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2017" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B2017" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="2018" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2018" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="2019" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2019" t="s">
-        <v>1107</v>
-      </c>
-      <c r="B2019" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="2020" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2020" t="s">
-        <v>1108</v>
-      </c>
-      <c r="B2020" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="2021" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2021" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2021" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="2022" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2022" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B2022" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="2023" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2023" t="s">
-        <v>1111</v>
-      </c>
-      <c r="B2023" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="2024" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2024" t="s">
-        <v>1112</v>
-      </c>
-      <c r="B2024" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="2025" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2025" t="s">
-        <v>1113</v>
-      </c>
-      <c r="B2025" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="2026" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2026" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B2026" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="2027" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2027" t="s">
-        <v>1115</v>
-      </c>
-      <c r="B2027" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="2028" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2028" t="s">
-        <v>1116</v>
-      </c>
-      <c r="B2028" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="2029" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2029" t="s">
-        <v>1117</v>
-      </c>
-      <c r="B2029" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="2030" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2030" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B2030" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="2031" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2031" t="s">
-        <v>1120</v>
-      </c>
-      <c r="B2031" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="2032" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2032" t="s">
-        <v>1122</v>
-      </c>
-      <c r="B2032" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="2033" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2033" t="s">
-        <v>1123</v>
-      </c>
-      <c r="B2033" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="2034" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2034" t="s">
-        <v>1125</v>
-      </c>
-      <c r="B2034" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="2035" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2035" t="s">
-        <v>1126</v>
-      </c>
-      <c r="B2035" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="2036" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2036" t="s">
-        <v>1127</v>
-      </c>
-      <c r="B2036" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="2037" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2037" t="s">
-        <v>1128</v>
-      </c>
-      <c r="B2037" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="2038" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2038" t="s">
-        <v>1129</v>
-      </c>
-      <c r="B2038" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="2039" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2039" t="s">
-        <v>1130</v>
-      </c>
-      <c r="B2039" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="2040" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2040" t="s">
-        <v>1131</v>
-      </c>
-      <c r="B2040" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="2041" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2041" t="s">
-        <v>1132</v>
-      </c>
-      <c r="B2041" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="2042" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2042" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2042" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="2043" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2043" t="s">
-        <v>1134</v>
-      </c>
-      <c r="B2043" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="2044" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2044" t="s">
-        <v>1135</v>
-      </c>
-      <c r="B2044" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="2045" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2045" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="2046" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2046" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="2047" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2047" t="s">
-        <v>1138</v>
-      </c>
-      <c r="B2047" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="2048" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2048" t="s">
-        <v>1139</v>
-      </c>
-      <c r="B2048" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="2049" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2049" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B2049" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="2050" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2050" t="s">
-        <v>1141</v>
-      </c>
-      <c r="B2050" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="2051" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2051" t="s">
-        <v>1142</v>
-      </c>
-      <c r="B2051" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="2052" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2052" t="s">
-        <v>1143</v>
-      </c>
-      <c r="B2052" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="2053" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2053" t="s">
-        <v>1144</v>
-      </c>
-      <c r="B2053" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="2054" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2054" t="s">
-        <v>1145</v>
-      </c>
-      <c r="B2054" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="2055" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2055" t="s">
-        <v>1146</v>
-      </c>
-      <c r="B2055" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2056" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2056" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B2056" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="2057" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2057" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="2058" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2058" t="s">
-        <v>1150</v>
-      </c>
-      <c r="B2058" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="2059" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2059" t="s">
-        <v>1151</v>
-      </c>
-      <c r="B2059" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="2060" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2060" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B2060" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="2061" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2061" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B2061" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="2062" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2062" t="s">
-        <v>1154</v>
-      </c>
-      <c r="B2062" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="2063" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2063" t="s">
-        <v>1155</v>
-      </c>
-      <c r="B2063" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="2064" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2064" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B2064" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="2065" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2065" t="s">
-        <v>1157</v>
-      </c>
-      <c r="B2065" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="2066" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2066" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B2066" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="2067" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2067" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B2067" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="2068" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2068" t="s">
-        <v>1160</v>
-      </c>
-      <c r="B2068" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="2069" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2069" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2069" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="2070" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2070" t="s">
-        <v>1162</v>
-      </c>
-      <c r="B2070" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="2071" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2071" t="s">
-        <v>1163</v>
-      </c>
-      <c r="B2071" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2072" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2072" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2072" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="2073" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2073" t="s">
-        <v>1165</v>
-      </c>
-      <c r="B2073" t="s">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="2074" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2074" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B2074" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="2075" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2075" t="s">
-        <v>1167</v>
-      </c>
-      <c r="B2075" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="2076" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2076" t="s">
-        <v>1168</v>
-      </c>
-      <c r="B2076" t="s">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="2077" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2077" t="s">
-        <v>1169</v>
-      </c>
-      <c r="B2077" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="2078" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2078" t="s">
-        <v>1170</v>
-      </c>
-      <c r="B2078" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="2079" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2079" t="s">
-        <v>1171</v>
-      </c>
-      <c r="B2079" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="2080" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2080" t="s">
-        <v>1172</v>
-      </c>
-      <c r="B2080" t="s">
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="2081" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2081" t="s">
-        <v>1173</v>
-      </c>
-      <c r="B2081" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="2082" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2082" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B2082" t="s">
-        <v>1174</v>
-      </c>
-    </row>
-    <row r="2083" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2083" t="s">
-        <v>1175</v>
-      </c>
-      <c r="B2083" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="2084" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2084" t="s">
-        <v>1176</v>
-      </c>
-      <c r="B2084" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="2085" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2085" t="s">
-        <v>1177</v>
-      </c>
-      <c r="B2085" t="s">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="2086" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2086" t="s">
-        <v>1178</v>
-      </c>
-      <c r="B2086" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="2087" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2087" t="s">
-        <v>1179</v>
-      </c>
-      <c r="B2087" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="2088" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2088" t="s">
-        <v>1180</v>
-      </c>
-      <c r="B2088" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="2089" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2089" t="s">
-        <v>1181</v>
-      </c>
-      <c r="B2089" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="2090" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2090" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B2090" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="2091" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2091" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B2091" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="2092" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2092" t="s">
-        <v>1184</v>
-      </c>
-      <c r="B2092" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="2093" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2093" t="s">
-        <v>1185</v>
-      </c>
-      <c r="B2093" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="2094" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2094" t="s">
-        <v>1186</v>
-      </c>
-      <c r="B2094" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="2095" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2095" t="s">
-        <v>1187</v>
-      </c>
-      <c r="B2095" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="2096" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2096" t="s">
-        <v>1188</v>
-      </c>
-      <c r="B2096" t="s">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="2097" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2097" t="s">
-        <v>1189</v>
-      </c>
-      <c r="B2097" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="2098" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2098" t="s">
-        <v>1190</v>
-      </c>
-      <c r="B2098" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="2099" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2099" t="s">
-        <v>1191</v>
-      </c>
-      <c r="B2099" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="2100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2100" t="s">
-        <v>1192</v>
-      </c>
-      <c r="B2100" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="2101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2101" t="s">
-        <v>1193</v>
-      </c>
-      <c r="B2101" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2102" t="s">
-        <v>1194</v>
-      </c>
-      <c r="B2102" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2103" t="s">
-        <v>1195</v>
-      </c>
-      <c r="B2103" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="2104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2104" t="s">
-        <v>1196</v>
-      </c>
-      <c r="B2104" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="2105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2105" t="s">
-        <v>1197</v>
-      </c>
-      <c r="B2105" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="2106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2106" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="2107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2107" t="s">
-        <v>1199</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
